--- a/data/trans_orig/P14B15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49B5605-724E-4DB9-ADF0-E6D1EEE810F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2E77D1-BB2E-4148-AED2-A2016F0A1504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A43F45E-3400-43AA-A422-22CEFD32909B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{114D63DD-6B0D-45A5-8ADE-B91EDA3CF5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="205">
   <si>
     <t>Población cuyo problemas crónicos de la piel le limita en 2012 (Tasa respuesta: 1,29%)</t>
   </si>
@@ -90,562 +90,568 @@
     <t>20,95%</t>
   </si>
   <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo problemas crónicos de la piel le limita en 2015 (Tasa respuesta: 1,34%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo problemas crónicos de la piel le limita en 2015 (Tasa respuesta: 1,34%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBE66CD-101E-4723-966F-6C565EAD6EA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5547B64E-627F-4377-BECB-304539D8AE0F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1807,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1816,13 +1822,13 @@
         <v>3025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1831,13 +1837,13 @@
         <v>6335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,10 +1858,10 @@
         <v>5265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -1867,13 +1873,13 @@
         <v>3041</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1882,13 +1888,13 @@
         <v>8306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,7 +1950,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1956,13 +1962,13 @@
         <v>4181</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -1971,10 +1977,10 @@
         <v>4179</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -1986,13 +1992,13 @@
         <v>8360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2013,13 @@
         <v>22122</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2022,13 +2028,13 @@
         <v>2244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2037,13 +2043,13 @@
         <v>24366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2117,13 @@
         <v>13897</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2126,13 +2132,13 @@
         <v>14135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2141,13 +2147,13 @@
         <v>28033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2168,13 @@
         <v>43073</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2177,13 +2183,13 @@
         <v>21996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -2192,13 +2198,13 @@
         <v>65068</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,7 +2260,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0169367C-3BB1-4CC7-A952-6405EBB562A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5505B50F-F71A-4307-8866-063C13CA72C0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2293,7 +2299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2406,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2421,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2436,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,7 +2460,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -2469,7 +2475,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -2484,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -2576,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2591,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -2639,7 +2645,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -2716,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2725,13 +2731,13 @@
         <v>981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2740,13 +2746,13 @@
         <v>981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
@@ -2776,10 +2782,10 @@
         <v>5690</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
@@ -2791,10 +2797,10 @@
         <v>11084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>15</v>
@@ -2865,13 +2871,13 @@
         <v>1086</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2880,13 +2886,13 @@
         <v>6399</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2895,13 +2901,13 @@
         <v>7485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,10 +2922,10 @@
         <v>5124</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -2931,13 +2937,13 @@
         <v>4017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2946,13 +2952,13 @@
         <v>9141</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3026,13 @@
         <v>1000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3035,13 +3041,13 @@
         <v>6878</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3050,13 +3056,13 @@
         <v>7878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,10 +3077,10 @@
         <v>5585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -3086,13 +3092,13 @@
         <v>3425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3101,13 +3107,13 @@
         <v>9011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3169,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3175,13 +3181,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3190,13 +3196,13 @@
         <v>2285</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3205,13 +3211,13 @@
         <v>3078</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,10 +3232,10 @@
         <v>12556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -3241,10 +3247,10 @@
         <v>14606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>15</v>
@@ -3256,13 +3262,13 @@
         <v>27162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3336,13 @@
         <v>2879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -3345,13 +3351,13 @@
         <v>16543</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -3360,13 +3366,13 @@
         <v>19422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3387,13 @@
         <v>32582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -3396,13 +3402,13 @@
         <v>39900</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -3411,13 +3417,13 @@
         <v>72481</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3479,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2E77D1-BB2E-4148-AED2-A2016F0A1504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1958ED94-B7F1-4A15-8FA9-025EA71757FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{114D63DD-6B0D-45A5-8ADE-B91EDA3CF5CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9C9EE15-2BDF-4BBB-81F5-C50D0300CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
     <t>20,95%</t>
   </si>
   <si>
-    <t>81,0%</t>
+    <t>81,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>79,05%</t>
   </si>
   <si>
-    <t>19,0%</t>
+    <t>18,98%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -120,13 +120,13 @@
     <t>20,96%</t>
   </si>
   <si>
-    <t>92,56%</t>
+    <t>76,04%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>75,34%</t>
+    <t>69,02%</t>
   </si>
   <si>
     <t>46,06%</t>
@@ -135,13 +135,13 @@
     <t>79,04%</t>
   </si>
   <si>
-    <t>7,44%</t>
+    <t>23,96%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>30,98%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -150,49 +150,49 @@
     <t>29,5%</t>
   </si>
   <si>
-    <t>81,41%</t>
+    <t>81,34%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>18,59%</t>
+    <t>18,66%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -201,43 +201,43 @@
     <t>31,96%</t>
   </si>
   <si>
-    <t>77,24%</t>
+    <t>73,41%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>54,65%</t>
+    <t>54,23%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>68,04%</t>
   </si>
   <si>
-    <t>22,76%</t>
+    <t>26,59%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>45,77%</t>
   </si>
   <si>
     <t>77,04%</t>
   </si>
   <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -246,49 +246,49 @@
     <t>38,6%</t>
   </si>
   <si>
-    <t>79,55%</t>
+    <t>83,07%</t>
   </si>
   <si>
     <t>49,86%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
   </si>
   <si>
     <t>61,4%</t>
   </si>
   <si>
-    <t>20,45%</t>
+    <t>16,93%</t>
   </si>
   <si>
     <t>50,14%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -297,109 +297,109 @@
     <t>15,9%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>16,23%</t>
+    <t>29,94%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>83,77%</t>
+    <t>70,06%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo problemas crónicos de la piel le limita en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población cuyo problemas crónicos de la piel le limita en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -438,13 +438,13 @@
     <t>14,71%</t>
   </si>
   <si>
-    <t>58,03%</t>
+    <t>58,66%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>40,54%</t>
+    <t>32,23%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -453,205 +453,205 @@
     <t>85,29%</t>
   </si>
   <si>
-    <t>41,97%</t>
+    <t>41,34%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>59,46%</t>
+    <t>67,77%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>68,87%</t>
+    <t>68,16%</t>
   </si>
   <si>
     <t>61,43%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>45,02%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>31,13%</t>
+    <t>31,84%</t>
   </si>
   <si>
     <t>38,57%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>54,98%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>65,54%</t>
+    <t>66,37%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>46,65%</t>
   </si>
   <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>33,63%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>34,42%</t>
+    <t>33,76%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>40,15%</t>
+    <t>40,59%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>65,58%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>59,85%</t>
+    <t>59,41%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5547B64E-627F-4377-BECB-304539D8AE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731F137B-B0EB-4054-9CA1-4D67101AA231}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2282,7 +2282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5505B50F-F71A-4307-8866-063C13CA72C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD59231-D8C0-4739-A5F0-FB21F317981B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
